--- a/Codigos/Futuros.xlsx
+++ b/Codigos/Futuros.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andresmartinez/Google Drive/ULasalle/2020-I/Financial Derivatives/Financial-Derivatives/Codigos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A625142F-F8B6-C547-82D5-6D0717327D85}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01A069C8-47A1-474A-9190-08F297DE8BAE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="280" yWindow="460" windowWidth="28240" windowHeight="16540" activeTab="1" xr2:uid="{B450E61F-9735-F24C-81E5-24510F91138F}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="21">
   <si>
     <t>NIKKEY</t>
   </si>
@@ -91,6 +91,12 @@
   </si>
   <si>
     <t>Margin Mantenimiento</t>
+  </si>
+  <si>
+    <t>Barriles</t>
+  </si>
+  <si>
+    <t>Index Points</t>
   </si>
 </sst>
 </file>
@@ -474,8 +480,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E3DCD68-0BAA-A04A-A2F3-4E61D8411F3C}">
   <dimension ref="A1:P40"/>
   <sheetViews>
-    <sheetView topLeftCell="F9" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+    <sheetView topLeftCell="A5" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -800,7 +806,7 @@
         <v>43.715951750254888</v>
       </c>
       <c r="F19">
-        <f t="shared" ref="F19:F26" si="5">+E19-E18</f>
+        <f>+E19-E18</f>
         <v>0.78883692590892451</v>
       </c>
       <c r="G19">
@@ -808,7 +814,7 @@
         <v>78.883692590892451</v>
       </c>
       <c r="H19">
-        <f t="shared" ref="H19:H26" si="6">+G19*$F$11</f>
+        <f t="shared" ref="H19:H26" si="5">+G19*$F$11</f>
         <v>788.83692590892451</v>
       </c>
       <c r="I19" s="4">
@@ -822,7 +828,7 @@
         <v>3.2</v>
       </c>
       <c r="M19" s="5">
-        <f t="shared" ref="M19:M26" si="7">+L19-L18</f>
+        <f t="shared" ref="M19:M26" si="6">+L19-L18</f>
         <v>1.0000000000000231E-2</v>
       </c>
       <c r="N19" s="5">
@@ -846,7 +852,7 @@
         <v>42.206750781019998</v>
       </c>
       <c r="F20">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="F19:F26" si="7">+E20-E19</f>
         <v>-1.5092009692348896</v>
       </c>
       <c r="G20">
@@ -854,7 +860,7 @@
         <v>-150.92009692348896</v>
       </c>
       <c r="H20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>-1509.2009692348895</v>
       </c>
       <c r="I20" s="4">
@@ -868,7 +874,7 @@
         <v>3.15</v>
       </c>
       <c r="M20" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>-5.0000000000000266E-2</v>
       </c>
       <c r="N20" s="5">
@@ -892,7 +898,7 @@
         <v>44.432197885650282</v>
       </c>
       <c r="F21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2.2254471046302839</v>
       </c>
       <c r="G21">
@@ -900,7 +906,7 @@
         <v>222.54471046302839</v>
       </c>
       <c r="H21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>2225.4471046302838</v>
       </c>
       <c r="I21" s="4">
@@ -914,7 +920,7 @@
         <v>3.1278736285563178</v>
       </c>
       <c r="M21" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>-2.2126371443682125E-2</v>
       </c>
       <c r="N21" s="5">
@@ -938,7 +944,7 @@
         <v>43.399518793742502</v>
       </c>
       <c r="F22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-1.0326790919077808</v>
       </c>
       <c r="G22">
@@ -946,7 +952,7 @@
         <v>-103.26790919077808</v>
       </c>
       <c r="H22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>-1032.6790919077807</v>
       </c>
       <c r="I22" s="4">
@@ -960,7 +966,7 @@
         <v>3.15</v>
       </c>
       <c r="M22" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>2.2126371443682125E-2</v>
       </c>
       <c r="N22" s="5">
@@ -984,7 +990,7 @@
         <v>41.544380891561303</v>
       </c>
       <c r="F23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-1.8551379021811982</v>
       </c>
       <c r="G23">
@@ -992,7 +998,7 @@
         <v>-185.51379021811982</v>
       </c>
       <c r="H23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>-1855.1379021811981</v>
       </c>
       <c r="I23" s="4">
@@ -1006,7 +1012,7 @@
         <v>3.10279662644245</v>
       </c>
       <c r="M23" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>-4.7203373557549888E-2</v>
       </c>
       <c r="N23" s="5">
@@ -1030,7 +1036,7 @@
         <v>43.667473870823699</v>
       </c>
       <c r="F24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2.1230929792623954</v>
       </c>
       <c r="G24">
@@ -1038,7 +1044,7 @@
         <v>212.30929792623954</v>
       </c>
       <c r="H24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>2123.0929792623956</v>
       </c>
       <c r="I24" s="4">
@@ -1052,7 +1058,7 @@
         <v>3.11298722677085</v>
       </c>
       <c r="M24" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1.0190600328400023E-2</v>
       </c>
       <c r="N24" s="5">
@@ -1076,7 +1082,7 @@
         <v>44.703964471455798</v>
       </c>
       <c r="F25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.0364906006320993</v>
       </c>
       <c r="G25">
@@ -1084,7 +1090,7 @@
         <v>103.64906006320993</v>
       </c>
       <c r="H25">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1036.4906006320994</v>
       </c>
       <c r="I25" s="4">
@@ -1098,7 +1104,7 @@
         <v>3.09251283520716</v>
       </c>
       <c r="M25" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>-2.047439156369002E-2</v>
       </c>
       <c r="N25" s="5">
@@ -1122,7 +1128,7 @@
         <v>41.7431447202475</v>
       </c>
       <c r="F26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-2.9608197512082981</v>
       </c>
       <c r="G26">
@@ -1130,7 +1136,7 @@
         <v>-296.08197512082978</v>
       </c>
       <c r="H26">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>-2960.8197512082979</v>
       </c>
       <c r="I26" s="4">
@@ -1144,7 +1150,7 @@
         <v>3.0817405890585299</v>
       </c>
       <c r="M26" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>-1.0772246148630149E-2</v>
       </c>
       <c r="N26" s="5">
@@ -1421,17 +1427,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93C320FE-9F33-BA44-8E0C-E50D830AD1F5}">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="B11" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="11.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.1640625" customWidth="1"/>
+    <col min="5" max="5" width="11" customWidth="1"/>
     <col min="6" max="6" width="21.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.33203125" bestFit="1" customWidth="1"/>
@@ -1498,10 +1504,330 @@
       <c r="A8" t="s">
         <v>0</v>
       </c>
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8">
+        <v>5</v>
+      </c>
+      <c r="E8" s="1">
+        <f>+B8*23035</f>
+        <v>115175</v>
+      </c>
+      <c r="F8">
+        <f>+D8*B8</f>
+        <v>25</v>
+      </c>
+      <c r="G8">
+        <v>8000</v>
+      </c>
+      <c r="H8">
+        <f>+E8*0.1</f>
+        <v>11517.5</v>
+      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>1</v>
+      </c>
+      <c r="B13">
+        <v>1000</v>
+      </c>
+      <c r="C13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13">
+        <v>0.01</v>
+      </c>
+      <c r="E13">
+        <f>+B13*42.84</f>
+        <v>42840</v>
+      </c>
+      <c r="F13">
+        <f>+D13*B13</f>
+        <v>10</v>
+      </c>
+      <c r="G13">
+        <v>6200</v>
+      </c>
+      <c r="H13">
+        <f>+E13*0.18</f>
+        <v>7711.2</v>
+      </c>
+    </row>
+    <row r="19" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C19" t="s">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>42.84</v>
+      </c>
+      <c r="H19">
+        <f>+H13</f>
+        <v>7711.2</v>
+      </c>
+      <c r="I19">
+        <f>+H19+I22+I25+I26</f>
+        <v>16551.2</v>
+      </c>
+    </row>
+    <row r="20" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>44</v>
+      </c>
+      <c r="E20">
+        <f>+D20-D19</f>
+        <v>1.1599999999999966</v>
+      </c>
+      <c r="F20">
+        <f>+E20/$D$13</f>
+        <v>115.99999999999966</v>
+      </c>
+      <c r="G20">
+        <f>+F20*$F$13</f>
+        <v>1159.9999999999966</v>
+      </c>
+      <c r="H20">
+        <f>+H19+G20</f>
+        <v>8871.1999999999971</v>
+      </c>
+    </row>
+    <row r="21" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C21">
+        <v>2</v>
+      </c>
+      <c r="D21">
+        <v>46</v>
+      </c>
+      <c r="E21">
+        <f>+D21-D20</f>
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <f t="shared" ref="F21:F29" si="0">+E21/$D$13</f>
+        <v>200</v>
+      </c>
+      <c r="G21">
+        <f t="shared" ref="G21:G29" si="1">+F21*$F$13</f>
+        <v>2000</v>
+      </c>
+      <c r="H21">
+        <f>+H20+G21</f>
+        <v>10871.199999999997</v>
+      </c>
+    </row>
+    <row r="22" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C22">
+        <v>3</v>
+      </c>
+      <c r="D22">
+        <v>40</v>
+      </c>
+      <c r="E22">
+        <f t="shared" ref="E22:E29" si="2">+D22-D21</f>
+        <v>-6</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="0"/>
+        <v>-600</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="1"/>
+        <v>-6000</v>
+      </c>
+      <c r="H22">
+        <f>+H21+G22</f>
+        <v>4871.1999999999971</v>
+      </c>
+      <c r="I22">
+        <f>+H13-H22</f>
+        <v>2840.0000000000027</v>
+      </c>
+    </row>
+    <row r="23" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C23">
+        <v>4</v>
+      </c>
+      <c r="D23">
+        <v>39</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="0"/>
+        <v>-100</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="1"/>
+        <v>-1000</v>
+      </c>
+      <c r="H23">
+        <f>+H19+G23</f>
+        <v>6711.2</v>
+      </c>
+    </row>
+    <row r="24" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C24">
+        <v>5</v>
+      </c>
+      <c r="D24">
+        <v>42</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="0"/>
+        <v>300</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="1"/>
+        <v>3000</v>
+      </c>
+      <c r="H24">
+        <f>+H23+G24</f>
+        <v>9711.2000000000007</v>
+      </c>
+    </row>
+    <row r="25" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C25">
+        <v>6</v>
+      </c>
+      <c r="D25">
+        <v>36</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="2"/>
+        <v>-6</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="0"/>
+        <v>-600</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="1"/>
+        <v>-6000</v>
+      </c>
+      <c r="H25">
+        <f>+H24+G25</f>
+        <v>3711.2000000000007</v>
+      </c>
+      <c r="I25">
+        <f>+H19-H25</f>
+        <v>3999.9999999999991</v>
+      </c>
+    </row>
+    <row r="26" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C26">
+        <v>7</v>
+      </c>
+      <c r="D26">
+        <v>34</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="2"/>
+        <v>-2</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="0"/>
+        <v>-200</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="1"/>
+        <v>-2000</v>
+      </c>
+      <c r="H26">
+        <f>+H19+G26</f>
+        <v>5711.2</v>
+      </c>
+      <c r="I26">
+        <f>+H19-H26</f>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="27" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C27">
+        <v>8</v>
+      </c>
+      <c r="D27">
+        <v>35</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="1"/>
+        <v>1000</v>
+      </c>
+      <c r="H27">
+        <f>+H19+G27</f>
+        <v>8711.2000000000007</v>
+      </c>
+    </row>
+    <row r="28" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C28">
+        <v>9</v>
+      </c>
+      <c r="D28">
+        <v>33</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="2"/>
+        <v>-2</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="0"/>
+        <v>-200</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="1"/>
+        <v>-2000</v>
+      </c>
+      <c r="H28">
+        <f>+H19+G28</f>
+        <v>5711.2</v>
+      </c>
+      <c r="I28">
+        <f>+H19-H28</f>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="29" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C29">
+        <v>10</v>
+      </c>
+      <c r="D29">
+        <v>40</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="0"/>
+        <v>700</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="1"/>
+        <v>7000</v>
+      </c>
+      <c r="H29">
+        <f>+H19+G29</f>
+        <v>14711.2</v>
       </c>
     </row>
   </sheetData>
